--- a/doc/pins.xlsx
+++ b/doc/pins.xlsx
@@ -73,8 +73,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -102,8 +110,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,16 +417,16 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
